--- a/ValueSet-opioids-with-ambulatory-abuse-potential.xlsx
+++ b/ValueSet-opioids-with-ambulatory-abuse-potential.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/cpg/opioids/ValueSet/opioids-with-ambulatory-abuse-potential</t>
+    <t>http://cqframework.org/cpg-example-opioids/ValueSet/opioids-with-ambulatory-abuse-potential</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T18:03:39+00:00</t>
+    <t>2024-11-18T18:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-opioids-with-ambulatory-abuse-potential.xlsx
+++ b/ValueSet-opioids-with-ambulatory-abuse-potential.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T18:13:28+00:00</t>
+    <t>2025-03-04T15:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
